--- a/scripts/from_proc/sql_cfg/元数据信息.xlsx
+++ b/scripts/from_proc/sql_cfg/元数据信息.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3966,7 +3966,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3976,6 +3976,48 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3994,7 +4036,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4006,6 +4048,27 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4289,8 +4352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1397"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A366" workbookViewId="0">
-      <selection activeCell="D383" sqref="D383"/>
+    <sheetView topLeftCell="A375" workbookViewId="0">
+      <selection activeCell="D377" sqref="D377"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -36152,8 +36215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -36197,7 +36260,7 @@
       <c r="B2" t="s">
         <v>1135</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="9" t="s">
         <v>1136</v>
       </c>
       <c r="D2" t="s">
@@ -36217,7 +36280,7 @@
       <c r="B3" t="s">
         <v>1139</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="9" t="s">
         <v>1140</v>
       </c>
       <c r="D3" t="s">
@@ -36237,7 +36300,7 @@
       <c r="B4" t="s">
         <v>1143</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="9" t="s">
         <v>1144</v>
       </c>
       <c r="D4" t="s">
@@ -36257,7 +36320,7 @@
       <c r="B5" t="s">
         <v>1147</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="10" t="s">
         <v>1148</v>
       </c>
       <c r="D5" t="s">
@@ -36280,7 +36343,7 @@
       <c r="B6" t="s">
         <v>1152</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="10" t="s">
         <v>1153</v>
       </c>
       <c r="D6" t="s">
@@ -36303,7 +36366,7 @@
       <c r="B7" t="s">
         <v>1156</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="10" t="s">
         <v>1157</v>
       </c>
       <c r="D7" t="s">
@@ -36326,7 +36389,7 @@
       <c r="B8" t="s">
         <v>1159</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="10" t="s">
         <v>1160</v>
       </c>
       <c r="D8" t="s">
@@ -36346,7 +36409,7 @@
       <c r="B9" t="s">
         <v>1164</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="8" t="s">
         <v>1165</v>
       </c>
       <c r="D9" t="s">
@@ -36369,7 +36432,7 @@
       <c r="B10" t="s">
         <v>1168</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="8" t="s">
         <v>1169</v>
       </c>
       <c r="D10" t="s">
@@ -36392,7 +36455,7 @@
       <c r="B11" t="s">
         <v>1172</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="8" t="s">
         <v>1173</v>
       </c>
       <c r="D11" t="s">
@@ -36415,7 +36478,7 @@
       <c r="B12" t="s">
         <v>1176</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="8" t="s">
         <v>1177</v>
       </c>
       <c r="D12" t="s">
@@ -36438,7 +36501,7 @@
       <c r="B13" t="s">
         <v>1179</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="8" t="s">
         <v>1180</v>
       </c>
       <c r="D13" t="s">
@@ -36461,7 +36524,7 @@
       <c r="B14" t="s">
         <v>1183</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="8" t="s">
         <v>1184</v>
       </c>
       <c r="D14" t="s">
@@ -36484,7 +36547,7 @@
       <c r="B15" t="s">
         <v>1187</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="8" t="s">
         <v>1188</v>
       </c>
       <c r="D15" t="s">
@@ -36507,7 +36570,7 @@
       <c r="B16" t="s">
         <v>1191</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="4" t="s">
         <v>1192</v>
       </c>
       <c r="D16" t="s">
@@ -36530,7 +36593,7 @@
       <c r="B17" t="s">
         <v>1195</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="4" t="s">
         <v>1196</v>
       </c>
       <c r="D17" t="s">
@@ -36553,7 +36616,7 @@
       <c r="B18" t="s">
         <v>1199</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="4" t="s">
         <v>1200</v>
       </c>
       <c r="D18" t="s">
@@ -36576,7 +36639,7 @@
       <c r="B19" t="s">
         <v>1202</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="4" t="s">
         <v>1203</v>
       </c>
       <c r="D19" t="s">
@@ -36599,7 +36662,7 @@
       <c r="B20" t="s">
         <v>1206</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="4" t="s">
         <v>1207</v>
       </c>
       <c r="D20" t="s">
@@ -36622,7 +36685,7 @@
       <c r="B21" t="s">
         <v>1209</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="4" t="s">
         <v>1210</v>
       </c>
       <c r="D21" t="s">
@@ -36642,7 +36705,7 @@
       <c r="B22" t="s">
         <v>1213</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="4" t="s">
         <v>1214</v>
       </c>
       <c r="D22" t="s">
@@ -36665,7 +36728,7 @@
       <c r="B23" t="s">
         <v>1216</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="4" t="s">
         <v>1217</v>
       </c>
       <c r="D23" t="s">
@@ -36688,7 +36751,7 @@
       <c r="B24" t="s">
         <v>1220</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="4" t="s">
         <v>1221</v>
       </c>
       <c r="D24" t="s">
@@ -36711,7 +36774,7 @@
       <c r="B25" t="s">
         <v>1223</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="4" t="s">
         <v>1224</v>
       </c>
       <c r="D25" t="s">
@@ -36734,7 +36797,7 @@
       <c r="B26" t="s">
         <v>1227</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="4" t="s">
         <v>1228</v>
       </c>
       <c r="D26" t="s">
@@ -36757,7 +36820,7 @@
       <c r="B27" t="s">
         <v>1230</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="4" t="s">
         <v>1231</v>
       </c>
       <c r="D27" t="s">
@@ -36780,7 +36843,7 @@
       <c r="B28" t="s">
         <v>1234</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="4" t="s">
         <v>1235</v>
       </c>
       <c r="D28" t="s">
@@ -36803,7 +36866,7 @@
       <c r="B29" t="s">
         <v>1237</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="4" t="s">
         <v>1238</v>
       </c>
       <c r="D29" t="s">
@@ -36826,7 +36889,7 @@
       <c r="B30" t="s">
         <v>1240</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="4" t="s">
         <v>1241</v>
       </c>
       <c r="D30" t="s">
@@ -36849,7 +36912,7 @@
       <c r="B31" t="s">
         <v>1243</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="7" t="s">
         <v>1244</v>
       </c>
       <c r="D31" t="s">
@@ -36872,7 +36935,7 @@
       <c r="B32" t="s">
         <v>1248</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="7" t="s">
         <v>1249</v>
       </c>
       <c r="D32" t="s">
@@ -36895,7 +36958,7 @@
       <c r="B33" t="s">
         <v>1254</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="7" t="s">
         <v>1255</v>
       </c>
       <c r="D33" t="s">
@@ -36912,7 +36975,7 @@
       <c r="B34" t="s">
         <v>1257</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="7" t="s">
         <v>1258</v>
       </c>
       <c r="D34" t="s">
@@ -36929,7 +36992,7 @@
       <c r="B35" t="s">
         <v>1251</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="7" t="s">
         <v>1252</v>
       </c>
       <c r="D35" t="s">
@@ -36946,7 +37009,7 @@
       <c r="B36" t="s">
         <v>1260</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="7" t="s">
         <v>1261</v>
       </c>
       <c r="D36" t="s">
@@ -36963,7 +37026,7 @@
       <c r="B37" t="s">
         <v>1263</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="7" t="s">
         <v>1264</v>
       </c>
       <c r="D37" t="s">
@@ -36980,7 +37043,7 @@
       <c r="B38" t="s">
         <v>1266</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="6" t="s">
         <v>1267</v>
       </c>
       <c r="D38" t="s">
@@ -37000,7 +37063,7 @@
       <c r="B39" t="s">
         <v>1269</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="6" t="s">
         <v>1270</v>
       </c>
       <c r="D39" t="s">
@@ -37020,7 +37083,7 @@
       <c r="B40" t="s">
         <v>1272</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="6" t="s">
         <v>1273</v>
       </c>
       <c r="D40" t="s">
@@ -37040,7 +37103,7 @@
       <c r="B41" t="s">
         <v>1275</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="6" t="s">
         <v>1276</v>
       </c>
       <c r="D41" t="s">
@@ -37060,7 +37123,7 @@
       <c r="B42" t="s">
         <v>1278</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="6" t="s">
         <v>1279</v>
       </c>
       <c r="D42" t="s">
@@ -37083,7 +37146,7 @@
       <c r="B43" t="s">
         <v>1282</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="6" t="s">
         <v>1283</v>
       </c>
       <c r="D43" t="s">
@@ -37103,7 +37166,7 @@
       <c r="B44" t="s">
         <v>1286</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="5" t="s">
         <v>1287</v>
       </c>
       <c r="D44" t="s">
@@ -37123,7 +37186,7 @@
       <c r="B45" t="s">
         <v>1290</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="5" t="s">
         <v>1291</v>
       </c>
       <c r="D45" t="s">
@@ -37143,7 +37206,7 @@
       <c r="B46" t="s">
         <v>1293</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="5" t="s">
         <v>1294</v>
       </c>
       <c r="D46" t="s">
@@ -37163,7 +37226,7 @@
       <c r="B47" t="s">
         <v>1297</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="5" t="s">
         <v>1298</v>
       </c>
       <c r="D47" t="s">
@@ -37183,7 +37246,7 @@
       <c r="B48" t="s">
         <v>1300</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="5" t="s">
         <v>1301</v>
       </c>
       <c r="D48" t="s">
